--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:16:28+00:00</t>
+    <t>2025-04-29T12:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:17:00+00:00</t>
+    <t>2025-04-29T16:12:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>author</t>
+    <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.availabilityStatus</t>
@@ -269,7 +269,10 @@
 </t>
   </si>
   <si>
-    <t>availability of the document</t>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d’un document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la pertinence de la version de la fiche d’un document.</t>
   </si>
   <si>
     <t>required</t>
@@ -300,37 +303,19 @@
     <t>SubmissionSet.entryUUID</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>SubmissionSet.homeCommunityID</t>
-  </si>
-  <si>
-    <t>ID of home community</t>
-  </si>
-  <si>
-    <t>SubmissionSet.intendedRecipient</t>
-  </si>
-  <si>
-    <t>intendend recipients of the document</t>
-  </si>
-  <si>
-    <t>SubmissionSet.limitedMetadata</t>
-  </si>
-  <si>
-    <t>limited metadata</t>
+    <t>Identifiant unique du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.patientID</t>
   </si>
   <si>
-    <t>identifier of patient</t>
+    <t>Représente l'identifiant du patient</t>
   </si>
   <si>
     <t>SubmissionSet.sourceID</t>
   </si>
   <si>
-    <t>identifier of source</t>
+    <t>Représente l’identifiant unique global du système émetteur du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.submissionTime</t>
@@ -340,19 +325,25 @@
 </t>
   </si>
   <si>
-    <t>timestamp of submission</t>
+    <t>Représente la date et heure de soumission.</t>
   </si>
   <si>
     <t>SubmissionSet.title</t>
   </si>
   <si>
-    <t>title of document</t>
+    <t xml:space="preserve">Titre du lot de soumission </t>
+  </si>
+  <si>
+    <t>Titre du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.uniqueID</t>
   </si>
   <si>
-    <t>identifier of document</t>
+    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. </t>
+  </si>
+  <si>
+    <t>Identifiant unique global affecté à ce lot de soumission par son créateur.</t>
   </si>
 </sst>
 </file>
@@ -657,7 +648,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -666,8 +657,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.1953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.1953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -697,7 +688,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.1953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="26.86328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -926,7 +917,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>78</v>
@@ -1001,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -1047,7 +1038,7 @@
         <v>83</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1074,11 +1065,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1113,10 +1104,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1139,7 +1130,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>49</v>
@@ -1196,7 +1187,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -1213,10 +1204,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1242,10 +1233,10 @@
         <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1272,11 +1263,11 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1294,7 +1285,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -1311,10 +1302,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1340,10 +1331,10 @@
         <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1394,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -1411,10 +1402,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1422,7 +1413,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>78</v>
@@ -1440,10 +1431,10 @@
         <v>79</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1494,10 +1485,10 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
@@ -1511,10 +1502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1522,10 +1513,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -1540,10 +1531,10 @@
         <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1594,13 +1585,13 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
@@ -1611,10 +1602,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1622,7 +1613,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -1637,13 +1628,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1694,10 +1685,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>78</v>
@@ -1711,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1722,7 +1713,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -1737,13 +1728,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1794,10 +1785,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>78</v>
@@ -1811,10 +1802,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1840,10 +1831,10 @@
         <v>79</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1894,7 +1885,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -1906,306 +1897,6 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T16:12:43+00:00</t>
+    <t>2025-04-30T07:00:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:00:53+00:00</t>
+    <t>2025-04-30T07:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:06:28+00:00</t>
+    <t>2025-04-30T13:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Logical Mode describes the relevant attributes on the **Submission Set** class within IHE ITI XDS.
-More details are to be retrieved from IHE ITI on www.ihe.net.
-(Focus for this LM is on the coded attributes.)</t>
+    <t>Model logique d'un lot de soummission</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -249,7 +247,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>SubmissionSet.author</t>
+    <t>SubmissionSet.entryUUID</t>
   </si>
   <si>
     <t>1</t>
@@ -259,7 +257,10 @@
 </t>
   </si>
   <si>
-    <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
+    <t xml:space="preserve">Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe. </t>
+  </si>
+  <si>
+    <t>Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe.</t>
   </si>
   <si>
     <t>SubmissionSet.availabilityStatus</t>
@@ -269,10 +270,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d’un document. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente la pertinence de la version de la fiche d’un document.</t>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence d'un lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
   </si>
   <si>
     <t>required</t>
@@ -281,17 +282,69 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
   </si>
   <si>
-    <t>SubmissionSet.comments</t>
+    <t>SubmissionSet.submissionTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Représente la date et heure de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.title</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Titre du lot de soumission </t>
+  </si>
+  <si>
+    <t>Titre du lot de soumission</t>
+  </si>
+  <si>
+    <t>SubmissionSet.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au lot de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.patientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.uniqueID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.  </t>
+  </si>
+  <si>
+    <t>Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.</t>
+  </si>
+  <si>
     <t>SubmissionSet.contentTypeCode</t>
   </si>
   <si>
-    <t>type of content of this submission</t>
+    <t xml:space="preserve">Ensemble de métadonnées représentant le type d’activité associé à l’événement clinique ayant abouti à la constitution du lot de soumission. </t>
   </si>
   <si>
     <t>**Submission Set**</t>
@@ -300,50 +353,28 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J59-ContentTypeCode-DMP/FHIR/JDV-J59-ContentTypeCode-DMP</t>
   </si>
   <si>
-    <t>SubmissionSet.entryUUID</t>
-  </si>
-  <si>
-    <t>Identifiant unique du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.patientID</t>
-  </si>
-  <si>
-    <t>Représente l'identifiant du patient</t>
-  </si>
-  <si>
-    <t>SubmissionSet.sourceID</t>
-  </si>
-  <si>
-    <t>Représente l’identifiant unique global du système émetteur du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.submissionTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Représente la date et heure de soumission.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre du lot de soumission </t>
-  </si>
-  <si>
-    <t>Titre du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.uniqueID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. </t>
-  </si>
-  <si>
-    <t>Identifiant unique global affecté à ce lot de soumission par son créateur.</t>
+    <t>SubmissionSet.author</t>
+  </si>
+  <si>
+    <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
+  </si>
+  <si>
+    <t>SubmissionSet.homeCommunityID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.intendedRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
   </si>
 </sst>
 </file>
@@ -648,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -657,8 +688,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.1953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.1953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -688,7 +719,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="26.86328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.1953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -938,7 +969,7 @@
         <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1006,10 +1037,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1032,13 +1063,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1065,11 +1096,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1087,7 +1118,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1104,10 +1135,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1115,7 +1146,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
@@ -1130,13 +1161,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1187,10 +1218,10 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
@@ -1204,10 +1235,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1215,7 +1246,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -1230,13 +1261,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1263,11 +1294,13 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1285,10 +1318,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
@@ -1302,10 +1335,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1313,7 +1346,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -1328,13 +1361,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1385,10 +1418,10 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
@@ -1402,10 +1435,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1431,10 +1464,10 @@
         <v>79</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1485,7 +1518,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1502,10 +1535,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1531,10 +1564,10 @@
         <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1585,7 +1618,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1602,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1628,13 +1661,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1685,7 +1718,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -1702,10 +1735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1713,7 +1746,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -1728,13 +1761,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1761,13 +1794,11 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>72</v>
@@ -1785,10 +1816,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>78</v>
@@ -1802,10 +1833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1831,10 +1862,10 @@
         <v>79</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1885,7 +1916,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -1897,6 +1928,206 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T13:43:05+00:00</t>
+    <t>2025-04-30T14:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T14:55:26+00:00</t>
+    <t>2025-04-30T15:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:08:51+00:00</t>
+    <t>2025-04-30T15:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:42:49+00:00</t>
+    <t>2025-04-30T15:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T10:35:31+00:00</t>
+    <t>2025-05-01T16:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,9 +257,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe. </t>
-  </si>
-  <si>
     <t>Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe.</t>
   </si>
   <si>
@@ -317,7 +314,8 @@
     <t>SubmissionSet.patientID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique. </t>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
+</t>
   </si>
   <si>
     <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique.</t>
@@ -326,18 +324,16 @@
     <t>SubmissionSet.sourceID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission.</t>
+    <t xml:space="preserve">oid
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.uniqueID</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.  </t>
-  </si>
-  <si>
     <t>Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.</t>
   </si>
   <si>
@@ -356,22 +352,20 @@
     <t>SubmissionSet.author</t>
   </si>
   <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+</t>
+  </si>
+  <si>
     <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.homeCommunityID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
-  </si>
-  <si>
     <t>Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
   </si>
   <si>
     <t>SubmissionSet.intendedRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
   </si>
   <si>
     <t>Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
@@ -698,7 +692,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -969,7 +963,7 @@
         <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1037,10 +1031,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1048,7 +1042,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -1063,13 +1057,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1096,11 +1090,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1118,10 +1112,10 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
@@ -1135,10 +1129,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1161,13 +1155,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1218,7 +1212,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1235,10 +1229,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1261,13 +1255,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1318,7 +1312,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1335,10 +1329,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1361,13 +1355,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1418,7 +1412,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -1435,10 +1429,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1461,13 +1455,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1518,7 +1512,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1535,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1561,13 +1555,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1618,7 +1612,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1635,10 +1629,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1661,13 +1655,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1718,7 +1712,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -1735,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1761,13 +1755,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1794,11 +1788,11 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>72</v>
@@ -1816,7 +1810,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1833,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1859,13 +1853,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1916,7 +1910,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -1933,10 +1927,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1959,13 +1953,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2016,7 +2010,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2033,10 +2027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2062,10 +2056,10 @@
         <v>79</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2116,7 +2110,7 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T16:30:13+00:00</t>
+    <t>2025-05-02T13:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Model logique d'un lot de soummission</t>
+    <t xml:space="preserve">Model logique d'un lot de soummission.
+</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,7 +254,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">uuid
 </t>
   </si>
   <si>
@@ -271,6 +272,9 @@
   </si>
   <si>
     <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'urn:oasis:names:tc:ebxml-regrep:StatusType:Approved': version à jour du lot de soumission. 'urn:asip:ci-sis:2010:StatusType:Archived': version archivée du lot de soumission, dans le cas où toutes les fiches du lot ont leur métadonnée availabilityStatus prenant la valeur  'urn:asip:ci-sis:2010:StatusType:Archived'. </t>
   </si>
   <si>
     <t>required</t>
@@ -701,7 +705,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="249.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -1078,7 +1082,7 @@
         <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="U4" t="s" s="2">
         <v>72</v>
@@ -1090,11 +1094,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1129,10 +1133,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1155,13 +1159,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1212,7 +1216,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1229,10 +1233,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1255,13 +1259,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1312,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1329,10 +1333,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1355,13 +1359,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1412,7 +1416,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -1429,10 +1433,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1455,13 +1459,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1512,7 +1516,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1529,10 +1533,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1555,13 +1559,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1612,7 +1616,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1629,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1655,13 +1659,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1712,7 +1716,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -1729,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1758,10 +1762,10 @@
         <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1788,11 +1792,11 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>72</v>
@@ -1810,7 +1814,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1827,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1853,13 +1857,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1910,7 +1914,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -1927,10 +1931,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1953,13 +1957,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2010,7 +2014,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2027,10 +2031,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2053,13 +2057,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2110,7 +2114,7 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,84 +264,88 @@
     <t>SubmissionSet.availabilityStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence d'un lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'urn:oasis:names:tc:ebxml-regrep:StatusType:Approved': version à jour du lot de soumission. 'urn:asip:ci-sis:2010:StatusType:Archived': version archivée du lot de soumission, dans le cas où toutes les fiches du lot ont leur métadonnée availabilityStatus prenant la valeur  'urn:asip:ci-sis:2010:StatusType:Archived'. </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
+  </si>
+  <si>
+    <t>SubmissionSet.submissionTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Représente la date et heure de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre du lot de soumission </t>
+  </si>
+  <si>
+    <t>Titre du lot de soumission</t>
+  </si>
+  <si>
+    <t>SubmissionSet.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au lot de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.patientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oid
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission</t>
+  </si>
+  <si>
+    <t>SubmissionSet.uniqueID</t>
+  </si>
+  <si>
+    <t>Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.contentTypeCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée représente la pertinence d'un lot de soumission. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'urn:oasis:names:tc:ebxml-regrep:StatusType:Approved': version à jour du lot de soumission. 'urn:asip:ci-sis:2010:StatusType:Archived': version archivée du lot de soumission, dans le cas où toutes les fiches du lot ont leur métadonnée availabilityStatus prenant la valeur  'urn:asip:ci-sis:2010:StatusType:Archived'. </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
-  </si>
-  <si>
-    <t>SubmissionSet.submissionTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Représente la date et heure de soumission.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre du lot de soumission </t>
-  </si>
-  <si>
-    <t>Titre du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au lot de soumission. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le commentaire associé au lot de soumission.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.patientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.sourceID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oid
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.uniqueID</t>
-  </si>
-  <si>
-    <t>Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.contentTypeCode</t>
   </si>
   <si>
     <t xml:space="preserve">Ensemble de métadonnées représentant le type d’activité associé à l’événement clinique ayant abouti à la constitution du lot de soumission. </t>
@@ -1759,13 +1763,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1796,7 +1800,7 @@
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>72</v>
@@ -1831,10 +1835,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1857,13 +1861,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1914,7 +1918,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -1931,10 +1935,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1960,10 +1964,10 @@
         <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2014,7 +2018,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2031,10 +2035,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2060,10 +2064,10 @@
         <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2114,7 +2118,7 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,7 +274,7 @@
     <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
   </si>
   <si>
-    <t xml:space="preserve">'urn:oasis:names:tc:ebxml-regrep:StatusType:Approved': version à jour du lot de soumission. 'urn:asip:ci-sis:2010:StatusType:Archived': version archivée du lot de soumission, dans le cas où toutes les fiches du lot ont leur métadonnée availabilityStatus prenant la valeur  'urn:asip:ci-sis:2010:StatusType:Archived'. </t>
+    <t xml:space="preserve">'urn:asip:ci-sis:2010:StatusType:Archived </t>
   </si>
   <si>
     <t>required</t>
@@ -709,7 +709,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="249.7109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.046875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,7 +274,7 @@
     <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
   </si>
   <si>
-    <t xml:space="preserve">'urn:asip:ci-sis:2010:StatusType:Archived </t>
+    <t>urn:oasis:names:tc:ebxml-regrep:StatusType:Approved</t>
   </si>
   <si>
     <t>required</t>
@@ -354,13 +354,13 @@
     <t>**Submission Set**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J59-ContentTypeCode-DMP/FHIR/JDV-J59-ContentTypeCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
   </si>
   <si>
     <t>SubmissionSet.author</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorSubmissionSet
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -709,13 +709,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="44.5546875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.0546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Model logique d'un lot de soummission.
-</t>
+    <t>Modèle logique d'un lot de soummission (SubmissionSet).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>**Submission Set**</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
@@ -1795,11 +1798,11 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>72</v>
@@ -1834,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1860,13 +1863,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1917,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -1934,10 +1937,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1963,10 +1966,10 @@
         <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2017,7 +2020,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2034,10 +2037,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2063,10 +2066,10 @@
         <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2117,7 +2120,7 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
